--- a/doc/task06/Scrum4.xlsx
+++ b/doc/task06/Scrum4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23007"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bernerfachhochschule.sharepoint.com/sites/ti-bti7081psoftwareengineeringanddesign-Teamred/Freigegebene Dokumente/Team red/Task5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="693" documentId="13_ncr:1_{F2908574-7E9F-4794-8A03-6F9E18A8418C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1F0A60E8-C964-45B5-B6EA-F08876AFC673}"/>
+  <xr:revisionPtr revIDLastSave="711" documentId="13_ncr:1_{F2908574-7E9F-4794-8A03-6F9E18A8418C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EA7C3569-BA9F-4326-B601-35DEA18B9069}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" firstSheet="1" activeTab="2" xr2:uid="{C482374B-5B99-4726-9179-D938D9AE037B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" firstSheet="2" activeTab="1" xr2:uid="{C482374B-5B99-4726-9179-D938D9AE037B}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="174">
   <si>
     <t>Name</t>
   </si>
@@ -140,18 +140,21 @@
     <t>low</t>
   </si>
   <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>Patient settings</t>
+  </si>
+  <si>
+    <t>The doctor should be able to create a patient and give him different options or data. This should also be stored</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
     <t>work in progress</t>
   </si>
   <si>
-    <t>Patient settings</t>
-  </si>
-  <si>
-    <t>The doctor should be able to create a patient and give him different options or data. This should also be stored</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
     <t>Navigation</t>
   </si>
   <si>
@@ -173,327 +176,327 @@
     <t>medium</t>
   </si>
   <si>
+    <t>Create entry</t>
+  </si>
+  <si>
+    <t>The patient should be able to create an entry</t>
+  </si>
+  <si>
+    <t>Trigger alarm</t>
+  </si>
+  <si>
+    <t>The patient should be able to trigger different alarm types</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>Dairy Manager</t>
+  </si>
+  <si>
+    <t>When the patient sends an entry, it should be processed by a server, stored and should update the statistik</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Components</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Reviewer</t>
+  </si>
+  <si>
+    <t>Create project</t>
+  </si>
+  <si>
+    <t>Create new vaddin project</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Create UI</t>
+  </si>
+  <si>
+    <t>Creating a username and password input with confirmation button</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>Request</t>
+  </si>
+  <si>
+    <t>After confirming the input, a request should be send to the server if the input is valid</t>
+  </si>
+  <si>
+    <t>Presenter</t>
+  </si>
+  <si>
+    <t>Create a site, where the doctor can create a patient</t>
+  </si>
+  <si>
+    <t>Store created patient</t>
+  </si>
+  <si>
+    <t>The data of a created patient should be stored</t>
+  </si>
+  <si>
+    <t>Persistence</t>
+  </si>
+  <si>
+    <t>Create search bar</t>
+  </si>
+  <si>
+    <t>A view, where the doctor can search for a patient by name</t>
+  </si>
+  <si>
+    <t>Create found list</t>
+  </si>
+  <si>
+    <t>A list of all found patients by name</t>
+  </si>
+  <si>
+    <t>UI, Presenter</t>
+  </si>
+  <si>
+    <t>Show patient details</t>
+  </si>
+  <si>
+    <t>A view of all stored data of a patient</t>
+  </si>
+  <si>
+    <t>Create link from list to details</t>
+  </si>
+  <si>
+    <t>If the doctor clicks on the name of the patient in the list, he should be naviagted to the patient details</t>
+  </si>
+  <si>
+    <t>Search for patient</t>
+  </si>
+  <si>
+    <t>The Presenter should search in the Persistence for the patients by the given input</t>
+  </si>
+  <si>
+    <t>Persistence, Presenter</t>
+  </si>
+  <si>
+    <t>Daily overview</t>
+  </si>
+  <si>
+    <t>A view of all the activities and comments</t>
+  </si>
+  <si>
+    <t>Menu Bar</t>
+  </si>
+  <si>
+    <t>A main menu with icons for navigation</t>
+  </si>
+  <si>
+    <t>denen2</t>
+  </si>
+  <si>
+    <t>Read dairy</t>
+  </si>
+  <si>
+    <t>Load dairy by a given patient</t>
+  </si>
+  <si>
+    <t>View, Persistence, Presenter</t>
+  </si>
+  <si>
+    <t>Show patient status</t>
+  </si>
+  <si>
+    <t>Shows the patient status over time as a graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View, Persistence </t>
+  </si>
+  <si>
+    <t>Create entry list</t>
+  </si>
+  <si>
+    <t>Shows all the entries sorted by day</t>
+  </si>
+  <si>
+    <t>View, Persistence</t>
+  </si>
+  <si>
+    <t>Go to entry</t>
+  </si>
+  <si>
+    <t>If the doctor clicks on a entry, it shows him the whole entry</t>
+  </si>
+  <si>
+    <t>View, Presenter, Persistence</t>
+  </si>
+  <si>
+    <t>Create entry view</t>
+  </si>
+  <si>
+    <t>Create the page on which the doctor will see all the entry details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View </t>
+  </si>
+  <si>
+    <t>Show comments</t>
+  </si>
+  <si>
+    <t>Load and show the comments the doctor has made</t>
+  </si>
+  <si>
+    <t>Create comment</t>
+  </si>
+  <si>
+    <t>Create a comment section (InputField) which is going to be stored</t>
+  </si>
+  <si>
+    <t>Edit comment</t>
+  </si>
+  <si>
+    <t>A already excisting comment should be editable and stored</t>
+  </si>
+  <si>
+    <t>Presenter, Persistence</t>
+  </si>
+  <si>
+    <t>Create avoidance strategy</t>
+  </si>
+  <si>
+    <t>Textfield for new avoidance strategy and storage</t>
+  </si>
+  <si>
+    <t>Show avoidance strategies</t>
+  </si>
+  <si>
+    <t>Loads and shows all the avoidance strategies by a given patient</t>
+  </si>
+  <si>
+    <t>Edit avoidance strategy</t>
+  </si>
+  <si>
+    <t>A avoidance strategy should be editable and stored</t>
+  </si>
+  <si>
+    <t>Show statistik for different options</t>
+  </si>
+  <si>
+    <t>Different options should be available (Dropbox) to show different statistiks (consum, health, motivation..)</t>
+  </si>
+  <si>
+    <t>Design alarm class</t>
+  </si>
+  <si>
+    <t>Create an alarm class with 3 different alarm types</t>
+  </si>
+  <si>
+    <t>Receive alarm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Process the received alarm </t>
+  </si>
+  <si>
+    <t>Notification</t>
+  </si>
+  <si>
+    <t>Send a notification to the doctor (E-Mail, Phone)</t>
+  </si>
+  <si>
+    <t>Overview</t>
+  </si>
+  <si>
+    <t>Create a overview where the patient can select different pages.</t>
+  </si>
+  <si>
+    <t>Page navigation</t>
+  </si>
+  <si>
+    <t>When the patient selects an option, he should be navigated to the right one</t>
+  </si>
+  <si>
+    <t>Create questions with label, radio buttons and input fields for the patient to fill up</t>
+  </si>
+  <si>
+    <t>Change page</t>
+  </si>
+  <si>
+    <t>The patient should be navigated to the next question after confirming the last one</t>
+  </si>
+  <si>
+    <t>Send input</t>
+  </si>
+  <si>
+    <t>After the patient has finished the entry, it should be send to the server after a confirmation</t>
+  </si>
+  <si>
+    <t>Show entry status</t>
+  </si>
+  <si>
+    <t>Show the patient if he has to make an entry today</t>
+  </si>
+  <si>
+    <t>Overview addiction</t>
+  </si>
+  <si>
+    <t>Show the patient his or her overview over the addiction</t>
+  </si>
+  <si>
+    <t>UI, Presenter, Persistence</t>
+  </si>
+  <si>
+    <t>Show addiction history</t>
+  </si>
+  <si>
+    <t>Shows the history of the addiction on a graph</t>
+  </si>
+  <si>
+    <t>Show avoidance strategy</t>
+  </si>
+  <si>
+    <t>Show the patient possible avoidance strategies</t>
+  </si>
+  <si>
+    <t>6,10</t>
+  </si>
+  <si>
+    <t>The patient should be able to create his or her own avoidance strategies and store it</t>
+  </si>
+  <si>
+    <t>6,11</t>
+  </si>
+  <si>
+    <t>Implement basic model functionality</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Create three different buttons at the start menu</t>
+  </si>
+  <si>
+    <t>Send message</t>
+  </si>
+  <si>
+    <t>Send a notification to the server with the tag of the alarm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call </t>
+  </si>
+  <si>
+    <t>One of the alarms calls the ambulance (DO NOT TEST WITH THE REAL NUMBER!)</t>
+  </si>
+  <si>
+    <t>Process incoming alarms and redirect them to the alarm system</t>
+  </si>
+  <si>
     <t>waiting</t>
   </si>
   <si>
-    <t>Create entry</t>
-  </si>
-  <si>
-    <t>The patient should be able to create an entry</t>
-  </si>
-  <si>
-    <t>Trigger alarm</t>
-  </si>
-  <si>
-    <t>The patient should be able to trigger different alarm types</t>
-  </si>
-  <si>
-    <t>Dairy Manager</t>
-  </si>
-  <si>
-    <t>When the patient sends an entry, it should be processed by a server, stored and should update the statistik</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Components</t>
-  </si>
-  <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>Reviewer</t>
-  </si>
-  <si>
-    <t>Create project</t>
-  </si>
-  <si>
-    <t>Create new vaddin project</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>Create UI</t>
-  </si>
-  <si>
-    <t>Creating a username and password input with confirmation button</t>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>Request</t>
-  </si>
-  <si>
-    <t>After confirming the input, a request should be send to the server if the input is valid</t>
-  </si>
-  <si>
-    <t>Presenter</t>
-  </si>
-  <si>
-    <t>Create a site, where the doctor can create a patient</t>
-  </si>
-  <si>
-    <t>Store created patient</t>
-  </si>
-  <si>
-    <t>The data of a created patient should be stored</t>
-  </si>
-  <si>
-    <t>Persistence</t>
-  </si>
-  <si>
-    <t>Create search bar</t>
-  </si>
-  <si>
-    <t>A view, where the doctor can search for a patient by name</t>
-  </si>
-  <si>
-    <t>Create found list</t>
-  </si>
-  <si>
-    <t>A list of all found patients by name</t>
-  </si>
-  <si>
-    <t>UI, Presenter</t>
-  </si>
-  <si>
-    <t>Show patient details</t>
-  </si>
-  <si>
-    <t>A view of all stored data of a patient</t>
-  </si>
-  <si>
-    <t>Create link from list to details</t>
-  </si>
-  <si>
-    <t>If the doctor clicks on the name of the patient in the list, he should be naviagted to the patient details</t>
-  </si>
-  <si>
-    <t>Search for patient</t>
-  </si>
-  <si>
-    <t>The Presenter should search in the Persistence for the patients by the given input</t>
-  </si>
-  <si>
-    <t>Persistence, Presenter</t>
-  </si>
-  <si>
-    <t>Daily overview</t>
-  </si>
-  <si>
-    <t>A view of all the activities and comments</t>
-  </si>
-  <si>
-    <t>Menu Bar</t>
-  </si>
-  <si>
-    <t>A main menu with icons for navigation</t>
-  </si>
-  <si>
-    <t>denen2</t>
-  </si>
-  <si>
-    <t>Read dairy</t>
-  </si>
-  <si>
-    <t>Load dairy by a given patient</t>
-  </si>
-  <si>
-    <t>View, Persistence, Presenter</t>
-  </si>
-  <si>
-    <t>Show patient status</t>
-  </si>
-  <si>
-    <t>Shows the patient status over time as a graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">View, Persistence </t>
-  </si>
-  <si>
-    <t>Create entry list</t>
-  </si>
-  <si>
-    <t>Shows all the entries sorted by day</t>
-  </si>
-  <si>
-    <t>View, Persistence</t>
-  </si>
-  <si>
-    <t>Go to entry</t>
-  </si>
-  <si>
-    <t>If the doctor clicks on a entry, it shows him the whole entry</t>
-  </si>
-  <si>
-    <t>View, Presenter, Persistence</t>
-  </si>
-  <si>
-    <t>Create entry view</t>
-  </si>
-  <si>
-    <t>Create the page on which the doctor will see all the entry details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">View </t>
-  </si>
-  <si>
-    <t>Show comments</t>
-  </si>
-  <si>
-    <t>Load and show the comments the doctor has made</t>
-  </si>
-  <si>
-    <t>Create comment</t>
-  </si>
-  <si>
-    <t>Create a comment section (InputField) which is going to be stored</t>
-  </si>
-  <si>
-    <t>Edit comment</t>
-  </si>
-  <si>
-    <t>A already excisting comment should be editable and stored</t>
-  </si>
-  <si>
-    <t>Presenter, Persistence</t>
-  </si>
-  <si>
-    <t>Create avoidance strategy</t>
-  </si>
-  <si>
-    <t>Textfield for new avoidance strategy and storage</t>
-  </si>
-  <si>
-    <t>Show avoidance strategies</t>
-  </si>
-  <si>
-    <t>Loads and shows all the avoidance strategies by a given patient</t>
-  </si>
-  <si>
-    <t>Edit avoidance strategy</t>
-  </si>
-  <si>
-    <t>A avoidance strategy should be editable and stored</t>
-  </si>
-  <si>
-    <t>Show statistik for different options</t>
-  </si>
-  <si>
-    <t>Different options should be available (Dropbox) to show different statistiks (consum, health, motivation..)</t>
-  </si>
-  <si>
-    <t>Design alarm class</t>
-  </si>
-  <si>
-    <t>Create an alarm class with 3 different alarm types</t>
-  </si>
-  <si>
-    <t>Receive alarm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Process the received alarm </t>
-  </si>
-  <si>
-    <t>Notification</t>
-  </si>
-  <si>
-    <t>Send a notification to the doctor (E-Mail, Phone)</t>
-  </si>
-  <si>
-    <t>Overview</t>
-  </si>
-  <si>
-    <t>Create a overview where the patient can select different pages.</t>
-  </si>
-  <si>
-    <t>Page navigation</t>
-  </si>
-  <si>
-    <t>When the patient selects an option, he should be navigated to the right one</t>
-  </si>
-  <si>
-    <t>Create questions with label, radio buttons and input fields for the patient to fill up</t>
-  </si>
-  <si>
-    <t>Change page</t>
-  </si>
-  <si>
-    <t>The patient should be navigated to the next question after confirming the last one</t>
-  </si>
-  <si>
-    <t>Send input</t>
-  </si>
-  <si>
-    <t>After the patient has finished the entry, it should be send to the server after a confirmation</t>
-  </si>
-  <si>
-    <t>Show entry status</t>
-  </si>
-  <si>
-    <t>Show the patient if he has to make an entry today</t>
-  </si>
-  <si>
-    <t>Overview addiction</t>
-  </si>
-  <si>
-    <t>Show the patient his or her overview over the addiction</t>
-  </si>
-  <si>
-    <t>UI, Presenter, Persistence</t>
-  </si>
-  <si>
-    <t>Show addiction history</t>
-  </si>
-  <si>
-    <t>Shows the history of the addiction on a graph</t>
-  </si>
-  <si>
-    <t>Show avoidance strategy</t>
-  </si>
-  <si>
-    <t>Show the patient possible avoidance strategies</t>
-  </si>
-  <si>
-    <t>6,10</t>
-  </si>
-  <si>
-    <t>The patient should be able to create his or her own avoidance strategies and store it</t>
-  </si>
-  <si>
-    <t>6,11</t>
-  </si>
-  <si>
-    <t>Implement basic model functionality</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Create three different buttons at the start menu</t>
-  </si>
-  <si>
-    <t>Send message</t>
-  </si>
-  <si>
-    <t>Send a notification to the server with the tag of the alarm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Call </t>
-  </si>
-  <si>
-    <t>One of the alarms calls the ambulance (DO NOT TEST WITH THE REAL NUMBER!)</t>
-  </si>
-  <si>
-    <t>Process incoming alarms and redirect them to the alarm system</t>
-  </si>
-  <si>
     <t>Receive entry</t>
   </si>
   <si>
@@ -555,9 +558,6 @@
   </si>
   <si>
     <t>Testing if any Exceptions are thrown</t>
-  </si>
-  <si>
-    <t>cancelled</t>
   </si>
 </sst>
 </file>
@@ -567,7 +567,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0#"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -741,7 +741,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1043,14 +1043,14 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1141,15 +1141,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37905654-AFA3-4390-A55C-951738E63CDA}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="28.9">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -1163,9 +1163,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1177,18 +1187,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6016FE4A-2B73-459C-87CB-EDCAB38B1A70}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="28.9">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -1214,7 +1224,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="28.9">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1240,10 +1250,10 @@
         <v>5</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="57.6">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1269,18 +1279,18 @@
         <v>20</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="28.9">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>37</v>
@@ -1298,18 +1308,18 @@
         <v>21</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="28.9">
       <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>37</v>
@@ -1324,24 +1334,24 @@
       </c>
       <c r="G5" s="6">
         <f>'Sprint Backlog'!K20</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="43.15">
       <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E6" s="5">
         <f>'Sprint Backlog'!I34</f>
@@ -1356,10 +1366,10 @@
         <v>6</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="28.9">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1385,10 +1395,10 @@
         <v>35</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="28.9">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -1399,7 +1409,7 @@
         <v>49</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E8" s="5">
         <f>'Sprint Backlog'!I52</f>
@@ -1414,18 +1424,18 @@
         <v>0</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="57.6">
       <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>37</v>
@@ -1443,12 +1453,12 @@
         <v>20</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickBot="1">
       <c r="D10" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E10" s="18">
         <f>SUM(E2:E9)</f>
@@ -1460,10 +1470,10 @@
       </c>
       <c r="G10" s="18">
         <f>SUM(G2:G9)</f>
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1473,21 +1483,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11D673EB-24A7-477E-9980-3DAAF88CD06C}">
   <dimension ref="A1:L125"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.44140625" customWidth="1"/>
-    <col min="4" max="4" width="62.88671875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" style="1"/>
-    <col min="12" max="12" width="15.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" customWidth="1"/>
+    <col min="4" max="4" width="62.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="1"/>
+    <col min="12" max="12" width="15.85546875" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="28.9">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -1501,13 +1511,13 @@
         <v>25</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>26</v>
@@ -1525,7 +1535,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="12" customFormat="1">
       <c r="A2" s="10">
         <f>'Product Backlog'!A2</f>
         <v>1</v>
@@ -1565,7 +1575,7 @@
         <v>done</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <f>A2+0.1</f>
         <v>1.1000000000000001</v>
@@ -1575,13 +1585,13 @@
         <v>3</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -1598,10 +1608,10 @@
         <v>1</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A5" si="0">A3+0.1</f>
         <v>1.2000000000000002</v>
@@ -1633,10 +1643,10 @@
         <v>4</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="28.9">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>1.3000000000000003</v>
@@ -1666,10 +1676,10 @@
         <v>0</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="B6" s="1"/>
       <c r="C6" s="9"/>
       <c r="D6" s="4"/>
@@ -1681,7 +1691,7 @@
       <c r="K6" s="9"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="28.9">
       <c r="A7" s="10">
         <f>'Product Backlog'!A3</f>
         <v>2</v>
@@ -1721,7 +1731,7 @@
         <v>work in progress</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <f>A7+0.1</f>
         <v>2.1</v>
@@ -1756,10 +1766,10 @@
         <v>4</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <f>A8+0.1</f>
         <v>2.2000000000000002</v>
@@ -1793,10 +1803,10 @@
         <v>16</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="B10" s="1"/>
       <c r="C10" s="9"/>
       <c r="D10" s="4"/>
@@ -1808,7 +1818,7 @@
       <c r="K10" s="9"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="A11" s="10">
         <f>'Product Backlog'!A4</f>
         <v>3</v>
@@ -1848,7 +1858,7 @@
         <v>done</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="A12" s="14">
         <f>A11+0.1</f>
         <v>3.1</v>
@@ -1883,10 +1893,10 @@
         <v>3</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="14">
         <f t="shared" ref="A13:A16" si="4">A12+0.1</f>
         <v>3.2</v>
@@ -1921,10 +1931,10 @@
         <v>3</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="14">
         <f t="shared" si="4"/>
         <v>3.3000000000000003</v>
@@ -1959,10 +1969,10 @@
         <v>5</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="28.9">
       <c r="A15" s="14">
         <f t="shared" si="4"/>
         <v>3.4000000000000004</v>
@@ -1996,10 +2006,10 @@
         <v>2</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="28.9">
       <c r="A16" s="14">
         <f t="shared" si="4"/>
         <v>3.5000000000000004</v>
@@ -2033,10 +2043,10 @@
         <v>2</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="14">
         <f>A16+0.1</f>
         <v>3.6000000000000005</v>
@@ -2071,10 +2081,10 @@
         <v>4</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="14">
         <v>3.7</v>
       </c>
@@ -2107,10 +2117,10 @@
         <v>2</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="B19" s="1"/>
       <c r="C19" s="9"/>
       <c r="D19" s="4"/>
@@ -2122,7 +2132,7 @@
       <c r="K19" s="9"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20" s="10">
         <f>'Product Backlog'!A5</f>
         <v>4</v>
@@ -2155,14 +2165,14 @@
       </c>
       <c r="K20" s="10">
         <f t="shared" si="5"/>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="L20" s="10" t="str">
         <f>'Product Backlog'!H5</f>
         <v>done</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <f xml:space="preserve"> A20+0.1</f>
         <v>4.0999999999999996</v>
@@ -2197,10 +2207,10 @@
         <v>1</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <f t="shared" ref="A22:A29" si="7" xml:space="preserve"> A21+0.1</f>
         <v>4.1999999999999993</v>
@@ -2232,13 +2242,13 @@
         <v>3</v>
       </c>
       <c r="K22" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <f t="shared" si="7"/>
         <v>4.2999999999999989</v>
@@ -2273,10 +2283,10 @@
         <v>2</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <f t="shared" si="7"/>
         <v>4.3999999999999986</v>
@@ -2311,10 +2321,10 @@
         <v>1</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <f t="shared" si="7"/>
         <v>4.4999999999999982</v>
@@ -2348,10 +2358,10 @@
         <v>2</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1">
         <f t="shared" si="7"/>
         <v>4.5999999999999979</v>
@@ -2385,10 +2395,10 @@
         <v>3</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1">
         <f t="shared" si="7"/>
         <v>4.6999999999999975</v>
@@ -2422,10 +2432,10 @@
         <v>3</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1">
         <f t="shared" si="7"/>
         <v>4.7999999999999972</v>
@@ -2459,10 +2469,10 @@
         <v>3</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1">
         <f t="shared" si="7"/>
         <v>4.8999999999999968</v>
@@ -2496,10 +2506,10 @@
         <v>3</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1">
         <v>4.0999999999999996</v>
       </c>
@@ -2532,10 +2542,10 @@
         <v>3</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1">
         <v>4.1100000000000003</v>
       </c>
@@ -2568,10 +2578,10 @@
         <v>4</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="28.9">
       <c r="A32" s="1">
         <v>4.12</v>
       </c>
@@ -2601,13 +2611,13 @@
         <v>3</v>
       </c>
       <c r="K32" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12">
       <c r="B33" s="1"/>
       <c r="C33" s="9"/>
       <c r="D33" s="4"/>
@@ -2619,7 +2629,7 @@
       <c r="K33" s="9"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12">
       <c r="A34" s="10">
         <f>'Product Backlog'!A6</f>
         <v>5</v>
@@ -2659,7 +2669,7 @@
         <v>done</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12">
       <c r="A35" s="1">
         <f>A34+0.1</f>
         <v>5.0999999999999996</v>
@@ -2680,7 +2690,9 @@
       <c r="F35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G35" s="9"/>
+      <c r="G35" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1">
         <v>2</v>
@@ -2695,7 +2707,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12">
       <c r="A36" s="1">
         <f>A35+0.1</f>
         <v>5.1999999999999993</v>
@@ -2716,7 +2728,9 @@
       <c r="F36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G36" s="9"/>
+      <c r="G36" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1">
         <v>2</v>
@@ -2731,7 +2745,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12">
       <c r="A37" s="1">
         <f>A36+0.1</f>
         <v>5.2999999999999989</v>
@@ -2752,7 +2766,9 @@
       <c r="F37" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="9"/>
+      <c r="G37" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1">
         <v>2</v>
@@ -2767,7 +2783,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12">
       <c r="B38" s="1"/>
       <c r="C38" s="9"/>
       <c r="D38" s="4"/>
@@ -2779,7 +2795,7 @@
       <c r="K38" s="9"/>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12">
       <c r="A39" s="10">
         <f>'Product Backlog'!A7</f>
         <v>6</v>
@@ -2819,7 +2835,7 @@
         <v>done</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12">
       <c r="A40" s="1">
         <f>A39+0.1</f>
         <v>6.1</v>
@@ -2854,10 +2870,10 @@
         <v>1</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1">
         <f t="shared" ref="A41:A48" si="10">A40+0.1</f>
         <v>6.1999999999999993</v>
@@ -2892,10 +2908,10 @@
         <v>1</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="28.9">
       <c r="A42" s="1">
         <f t="shared" si="10"/>
         <v>6.2999999999999989</v>
@@ -2930,10 +2946,10 @@
         <v>2</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="28.9">
       <c r="A43" s="1">
         <f t="shared" si="10"/>
         <v>6.3999999999999986</v>
@@ -2968,10 +2984,10 @@
         <v>4</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="28.9">
       <c r="A44" s="1">
         <f t="shared" si="10"/>
         <v>6.4999999999999982</v>
@@ -3009,7 +3025,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12">
       <c r="A45" s="1">
         <f t="shared" si="10"/>
         <v>6.5999999999999979</v>
@@ -3044,10 +3060,10 @@
         <v>1</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1">
         <f t="shared" si="10"/>
         <v>6.6999999999999975</v>
@@ -3082,10 +3098,10 @@
         <v>6</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1">
         <f t="shared" si="10"/>
         <v>6.7999999999999972</v>
@@ -3119,10 +3135,10 @@
         <v>4</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1">
         <f t="shared" si="10"/>
         <v>6.8999999999999968</v>
@@ -3156,10 +3172,10 @@
         <v>4</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="28.9">
       <c r="A49" s="16" t="s">
         <v>141</v>
       </c>
@@ -3192,10 +3208,10 @@
         <v>3</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="16" t="s">
         <v>143</v>
       </c>
@@ -3228,10 +3244,10 @@
         <v>8</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="4"/>
@@ -3243,7 +3259,7 @@
       <c r="K51" s="9"/>
       <c r="L51" s="1"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12">
       <c r="A52" s="10">
         <f>'Product Backlog'!A8</f>
         <v>7</v>
@@ -3283,7 +3299,7 @@
         <v>cancelled</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12">
       <c r="A53" s="1">
         <f>A52+0.1</f>
         <v>7.1</v>
@@ -3313,10 +3329,10 @@
         <v>0</v>
       </c>
       <c r="L53" s="20" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1">
         <f t="shared" ref="A54:A55" si="11">A53+0.1</f>
         <v>7.1999999999999993</v>
@@ -3346,10 +3362,10 @@
         <v>0</v>
       </c>
       <c r="L54" s="20" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="28.9">
       <c r="A55" s="1">
         <f t="shared" si="11"/>
         <v>7.2999999999999989</v>
@@ -3379,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="L55" s="20" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="B56" s="4"/>
       <c r="C56" s="9"/>
       <c r="D56" s="4"/>
@@ -3395,7 +3411,7 @@
       <c r="K56" s="9"/>
       <c r="L56" s="1"/>
     </row>
-    <row r="57" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" ht="28.9">
       <c r="A57" s="10">
         <f>'Product Backlog'!A9</f>
         <v>8</v>
@@ -3435,7 +3451,7 @@
         <v>done</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12">
       <c r="A58" s="1">
         <f xml:space="preserve"> A57 + 0.1</f>
         <v>8.1</v>
@@ -3464,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1">
         <f t="shared" ref="A59:A65" si="13" xml:space="preserve"> A58 + 0.1</f>
         <v>8.1999999999999993</v>
@@ -3476,10 +3492,10 @@
         <v>3</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>65</v>
@@ -3496,10 +3512,10 @@
         <v>0</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1">
         <f t="shared" si="13"/>
         <v>8.2999999999999989</v>
@@ -3509,10 +3525,10 @@
         <v>2</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>145</v>
@@ -3520,7 +3536,9 @@
       <c r="F60" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G60" s="1"/>
+      <c r="G60" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1">
         <v>2</v>
@@ -3532,10 +3550,10 @@
         <v>3</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1">
         <f t="shared" si="13"/>
         <v>8.3999999999999986</v>
@@ -3545,18 +3563,20 @@
         <v>2</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G61" s="1"/>
+      <c r="G61" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1">
         <v>2</v>
@@ -3568,10 +3588,10 @@
         <v>2</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1">
         <f t="shared" si="13"/>
         <v>8.4999999999999982</v>
@@ -3581,10 +3601,10 @@
         <v>2</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>65</v>
@@ -3606,10 +3626,10 @@
         <v>4</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1">
         <f t="shared" si="13"/>
         <v>8.5999999999999979</v>
@@ -3619,10 +3639,10 @@
         <v>2</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>65</v>
@@ -3644,10 +3664,10 @@
         <v>2</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1">
         <f t="shared" si="13"/>
         <v>8.6999999999999975</v>
@@ -3657,10 +3677,10 @@
         <v>2</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>65</v>
@@ -3682,10 +3702,10 @@
         <v>2</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1">
         <f t="shared" si="13"/>
         <v>8.7999999999999972</v>
@@ -3695,10 +3715,10 @@
         <v>2</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>65</v>
@@ -3720,10 +3740,10 @@
         <v>2</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="1">
         <v>8.9</v>
       </c>
@@ -3731,13 +3751,13 @@
         <v>3</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>5</v>
@@ -3756,21 +3776,21 @@
         <v>3</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="16" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B67" s="1">
         <v>3</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>65</v>
@@ -3778,7 +3798,9 @@
       <c r="F67" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G67" s="9"/>
+      <c r="G67" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="H67" s="9"/>
       <c r="I67" s="1">
         <v>2</v>
@@ -3790,10 +3812,10 @@
         <v>2</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="B68" s="1"/>
       <c r="C68" s="9"/>
       <c r="D68" s="4"/>
@@ -3805,7 +3827,7 @@
       <c r="K68" s="9"/>
       <c r="L68" s="1"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12">
       <c r="B69" s="1"/>
       <c r="C69" s="9"/>
       <c r="D69" s="4"/>
@@ -3817,7 +3839,7 @@
       <c r="K69" s="9"/>
       <c r="L69" s="1"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12">
       <c r="B70" s="1"/>
       <c r="C70" s="9"/>
       <c r="D70" s="4"/>
@@ -3829,7 +3851,7 @@
       <c r="K70" s="9"/>
       <c r="L70" s="1"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12">
       <c r="B71" s="1"/>
       <c r="C71" s="9"/>
       <c r="D71" s="4"/>
@@ -3841,7 +3863,7 @@
       <c r="K71" s="9"/>
       <c r="L71" s="1"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12">
       <c r="B72" s="1"/>
       <c r="C72" s="9"/>
       <c r="D72" s="4"/>
@@ -3853,7 +3875,7 @@
       <c r="K72" s="9"/>
       <c r="L72" s="1"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12">
       <c r="B73" s="1"/>
       <c r="C73" s="9"/>
       <c r="D73" s="4"/>
@@ -3865,7 +3887,7 @@
       <c r="K73" s="9"/>
       <c r="L73" s="1"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12">
       <c r="B74" s="1"/>
       <c r="C74" s="9"/>
       <c r="D74" s="4"/>
@@ -3877,7 +3899,7 @@
       <c r="K74" s="9"/>
       <c r="L74" s="1"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12">
       <c r="B75" s="1"/>
       <c r="C75" s="9"/>
       <c r="D75" s="4"/>
@@ -3889,7 +3911,7 @@
       <c r="K75" s="9"/>
       <c r="L75" s="1"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12">
       <c r="B76" s="1"/>
       <c r="C76" s="9"/>
       <c r="D76" s="4"/>
@@ -3901,7 +3923,7 @@
       <c r="K76" s="9"/>
       <c r="L76" s="1"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12">
       <c r="B77" s="1"/>
       <c r="C77" s="9"/>
       <c r="D77" s="4"/>
@@ -3913,7 +3935,7 @@
       <c r="K77" s="9"/>
       <c r="L77" s="1"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12">
       <c r="B78" s="1"/>
       <c r="C78" s="9"/>
       <c r="D78" s="4"/>
@@ -3925,7 +3947,7 @@
       <c r="K78" s="9"/>
       <c r="L78" s="1"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12">
       <c r="B79" s="1"/>
       <c r="C79" s="9"/>
       <c r="D79" s="4"/>
@@ -3937,7 +3959,7 @@
       <c r="K79" s="9"/>
       <c r="L79" s="1"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12">
       <c r="B80" s="1"/>
       <c r="C80" s="9"/>
       <c r="D80" s="4"/>
@@ -3949,7 +3971,7 @@
       <c r="K80" s="9"/>
       <c r="L80" s="1"/>
     </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:12">
       <c r="B81" s="1"/>
       <c r="C81" s="9"/>
       <c r="D81" s="4"/>
@@ -3961,7 +3983,7 @@
       <c r="K81" s="9"/>
       <c r="L81" s="1"/>
     </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:12">
       <c r="B82" s="1"/>
       <c r="C82" s="9"/>
       <c r="D82" s="4"/>
@@ -3973,7 +3995,7 @@
       <c r="K82" s="9"/>
       <c r="L82" s="1"/>
     </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:12">
       <c r="B83" s="1"/>
       <c r="C83" s="9"/>
       <c r="D83" s="4"/>
@@ -3985,7 +4007,7 @@
       <c r="K83" s="9"/>
       <c r="L83" s="1"/>
     </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:12">
       <c r="B84" s="1"/>
       <c r="C84" s="9"/>
       <c r="D84" s="4"/>
@@ -3997,7 +4019,7 @@
       <c r="K84" s="9"/>
       <c r="L84" s="1"/>
     </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:12">
       <c r="B85" s="1"/>
       <c r="C85" s="9"/>
       <c r="D85" s="4"/>
@@ -4009,7 +4031,7 @@
       <c r="K85" s="9"/>
       <c r="L85" s="1"/>
     </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:12">
       <c r="B86" s="1"/>
       <c r="C86" s="9"/>
       <c r="D86" s="4"/>
@@ -4021,7 +4043,7 @@
       <c r="K86" s="9"/>
       <c r="L86" s="1"/>
     </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:12">
       <c r="B87" s="1"/>
       <c r="C87" s="9"/>
       <c r="D87" s="4"/>
@@ -4033,7 +4055,7 @@
       <c r="K87" s="9"/>
       <c r="L87" s="1"/>
     </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:12">
       <c r="B88" s="1"/>
       <c r="C88" s="9"/>
       <c r="D88" s="4"/>
@@ -4045,7 +4067,7 @@
       <c r="K88" s="9"/>
       <c r="L88" s="1"/>
     </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:12">
       <c r="B89" s="1"/>
       <c r="C89" s="9"/>
       <c r="D89" s="4"/>
@@ -4057,7 +4079,7 @@
       <c r="K89" s="9"/>
       <c r="L89" s="1"/>
     </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:12">
       <c r="B90" s="1"/>
       <c r="C90" s="9"/>
       <c r="D90" s="4"/>
@@ -4069,7 +4091,7 @@
       <c r="K90" s="9"/>
       <c r="L90" s="1"/>
     </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:12">
       <c r="B91" s="1"/>
       <c r="C91" s="9"/>
       <c r="D91" s="4"/>
@@ -4081,7 +4103,7 @@
       <c r="K91" s="9"/>
       <c r="L91" s="1"/>
     </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:12">
       <c r="B92" s="1"/>
       <c r="C92" s="9"/>
       <c r="D92" s="4"/>
@@ -4093,7 +4115,7 @@
       <c r="K92" s="9"/>
       <c r="L92" s="1"/>
     </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:12">
       <c r="B93" s="1"/>
       <c r="C93" s="9"/>
       <c r="D93" s="4"/>
@@ -4105,7 +4127,7 @@
       <c r="K93" s="9"/>
       <c r="L93" s="1"/>
     </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:12">
       <c r="B94" s="1"/>
       <c r="C94" s="9"/>
       <c r="D94" s="4"/>
@@ -4117,7 +4139,7 @@
       <c r="K94" s="9"/>
       <c r="L94" s="1"/>
     </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:12">
       <c r="B95" s="1"/>
       <c r="C95" s="9"/>
       <c r="D95" s="4"/>
@@ -4129,7 +4151,7 @@
       <c r="K95" s="9"/>
       <c r="L95" s="1"/>
     </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:12">
       <c r="B96" s="1"/>
       <c r="C96" s="9"/>
       <c r="D96" s="4"/>
@@ -4141,7 +4163,7 @@
       <c r="K96" s="9"/>
       <c r="L96" s="1"/>
     </row>
-    <row r="97" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:12">
       <c r="B97" s="1"/>
       <c r="C97" s="9"/>
       <c r="D97" s="4"/>
@@ -4153,7 +4175,7 @@
       <c r="K97" s="9"/>
       <c r="L97" s="1"/>
     </row>
-    <row r="98" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:12">
       <c r="B98" s="1"/>
       <c r="C98" s="9"/>
       <c r="D98" s="4"/>
@@ -4165,7 +4187,7 @@
       <c r="K98" s="9"/>
       <c r="L98" s="1"/>
     </row>
-    <row r="99" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:12">
       <c r="B99" s="1"/>
       <c r="C99" s="9"/>
       <c r="D99" s="4"/>
@@ -4177,7 +4199,7 @@
       <c r="K99" s="9"/>
       <c r="L99" s="1"/>
     </row>
-    <row r="100" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:12">
       <c r="B100" s="1"/>
       <c r="C100" s="9"/>
       <c r="D100" s="4"/>
@@ -4189,7 +4211,7 @@
       <c r="K100" s="9"/>
       <c r="L100" s="1"/>
     </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:12">
       <c r="B101" s="1"/>
       <c r="C101" s="9"/>
       <c r="D101" s="4"/>
@@ -4201,7 +4223,7 @@
       <c r="K101" s="9"/>
       <c r="L101" s="1"/>
     </row>
-    <row r="102" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:12">
       <c r="B102" s="1"/>
       <c r="C102" s="9"/>
       <c r="D102" s="4"/>
@@ -4213,7 +4235,7 @@
       <c r="K102" s="9"/>
       <c r="L102" s="1"/>
     </row>
-    <row r="103" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:12">
       <c r="B103" s="1"/>
       <c r="C103" s="9"/>
       <c r="D103" s="4"/>
@@ -4225,7 +4247,7 @@
       <c r="K103" s="9"/>
       <c r="L103" s="1"/>
     </row>
-    <row r="104" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:12">
       <c r="B104" s="1"/>
       <c r="C104" s="9"/>
       <c r="D104" s="4"/>
@@ -4237,7 +4259,7 @@
       <c r="K104" s="9"/>
       <c r="L104" s="1"/>
     </row>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:12">
       <c r="B105" s="1"/>
       <c r="C105" s="9"/>
       <c r="D105" s="4"/>
@@ -4249,7 +4271,7 @@
       <c r="K105" s="9"/>
       <c r="L105" s="1"/>
     </row>
-    <row r="106" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:12">
       <c r="B106" s="1"/>
       <c r="C106" s="9"/>
       <c r="D106" s="4"/>
@@ -4261,7 +4283,7 @@
       <c r="K106" s="9"/>
       <c r="L106" s="1"/>
     </row>
-    <row r="107" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:12">
       <c r="B107" s="1"/>
       <c r="C107" s="9"/>
       <c r="D107" s="4"/>
@@ -4273,7 +4295,7 @@
       <c r="K107" s="9"/>
       <c r="L107" s="1"/>
     </row>
-    <row r="108" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:12">
       <c r="B108" s="1"/>
       <c r="C108" s="9"/>
       <c r="D108" s="4"/>
@@ -4285,7 +4307,7 @@
       <c r="K108" s="9"/>
       <c r="L108" s="1"/>
     </row>
-    <row r="109" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:12">
       <c r="B109" s="1"/>
       <c r="C109" s="9"/>
       <c r="D109" s="4"/>
@@ -4297,7 +4319,7 @@
       <c r="K109" s="9"/>
       <c r="L109" s="1"/>
     </row>
-    <row r="110" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:12">
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
       <c r="D110" s="4"/>
@@ -4309,7 +4331,7 @@
       <c r="K110" s="9"/>
       <c r="L110" s="1"/>
     </row>
-    <row r="111" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:12">
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
       <c r="D111" s="4"/>
@@ -4321,7 +4343,7 @@
       <c r="K111" s="9"/>
       <c r="L111" s="1"/>
     </row>
-    <row r="112" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:12">
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
       <c r="D112" s="4"/>
@@ -4333,7 +4355,7 @@
       <c r="K112" s="9"/>
       <c r="L112" s="1"/>
     </row>
-    <row r="113" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:12">
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
       <c r="D113" s="4"/>
@@ -4345,7 +4367,7 @@
       <c r="K113" s="9"/>
       <c r="L113" s="1"/>
     </row>
-    <row r="114" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:12">
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
       <c r="D114" s="4"/>
@@ -4357,7 +4379,7 @@
       <c r="K114" s="9"/>
       <c r="L114" s="1"/>
     </row>
-    <row r="115" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:12">
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
       <c r="D115" s="4"/>
@@ -4369,7 +4391,7 @@
       <c r="K115" s="9"/>
       <c r="L115" s="1"/>
     </row>
-    <row r="116" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:12">
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
       <c r="D116" s="4"/>
@@ -4381,7 +4403,7 @@
       <c r="K116" s="9"/>
       <c r="L116" s="1"/>
     </row>
-    <row r="117" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:12">
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
       <c r="D117" s="4"/>
@@ -4393,7 +4415,7 @@
       <c r="K117" s="9"/>
       <c r="L117" s="1"/>
     </row>
-    <row r="118" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:12">
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
       <c r="D118" s="4"/>
@@ -4405,7 +4427,7 @@
       <c r="K118" s="9"/>
       <c r="L118" s="1"/>
     </row>
-    <row r="119" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:12">
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
       <c r="D119" s="4"/>
@@ -4417,7 +4439,7 @@
       <c r="K119" s="9"/>
       <c r="L119" s="1"/>
     </row>
-    <row r="120" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:12">
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
       <c r="D120" s="4"/>
@@ -4429,7 +4451,7 @@
       <c r="K120" s="9"/>
       <c r="L120" s="1"/>
     </row>
-    <row r="121" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:12">
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
       <c r="D121" s="4"/>
@@ -4441,7 +4463,7 @@
       <c r="K121" s="9"/>
       <c r="L121" s="1"/>
     </row>
-    <row r="122" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:12">
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
       <c r="D122" s="4"/>
@@ -4453,7 +4475,7 @@
       <c r="K122" s="9"/>
       <c r="L122" s="1"/>
     </row>
-    <row r="123" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:12">
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
       <c r="D123" s="4"/>
@@ -4465,7 +4487,7 @@
       <c r="K123" s="9"/>
       <c r="L123" s="1"/>
     </row>
-    <row r="124" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:12">
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
       <c r="D124" s="4"/>
@@ -4477,7 +4499,7 @@
       <c r="K124" s="9"/>
       <c r="L124" s="1"/>
     </row>
-    <row r="125" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:12">
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
       <c r="D125" s="4"/>
@@ -4502,6 +4524,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101006893662426E20041B5DC715A07C05AC8" ma:contentTypeVersion="9" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="db8e3785e4048d86673656f85c6e4a74">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f3d1dfd9-2c46-4740-86be-d7afc8a22601" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="67330246e094fd0a8f62c100095b0b8e" ns2:_="">
     <xsd:import namespace="f3d1dfd9-2c46-4740-86be-d7afc8a22601"/>
@@ -4679,53 +4710,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCB1E459-8FC1-42F5-BF12-AB8D89174837}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f3d1dfd9-2c46-4740-86be-d7afc8a22601"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCB1E459-8FC1-42F5-BF12-AB8D89174837}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C45677FC-D6BA-4183-B67C-4F363B86DB98}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f3d1dfd9-2c46-4740-86be-d7afc8a22601"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F60338BD-DFC9-4686-AE4A-E6B1A5A543D5}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F60338BD-DFC9-4686-AE4A-E6B1A5A543D5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C45677FC-D6BA-4183-B67C-4F363B86DB98}"/>
 </file>